--- a/VDM/aspose/土地信息导入模板.xlsx
+++ b/VDM/aspose/土地信息导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18352" windowHeight="8055"/>
+    <workbookView windowWidth="18350" windowHeight="6880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1005,14 +1005,14 @@
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="12.1592920353982" customWidth="1"/>
-    <col min="12" max="12" width="12.353982300885" customWidth="1"/>
-    <col min="17" max="17" width="19.0530973451327" customWidth="1"/>
+    <col min="4" max="4" width="12.1636363636364" customWidth="1"/>
+    <col min="12" max="12" width="12.3545454545455" customWidth="1"/>
+    <col min="17" max="17" width="19.0545454545455" customWidth="1"/>
     <col min="18" max="18" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1073,16 +1073,10 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 E1 F1 O1"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 O1 E$1:E$1048576 F$1:F$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"农用地,商业用地,建设用地,居民住宅地"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>"一级,二级,三级,四级,五级,六级,七级,八级,九级,十一级,十二级,十三级,十四级,十五级"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
       <formula1>"转包,出租,互换,转让"</formula1>

--- a/VDM/aspose/土地信息导入模板.xlsx
+++ b/VDM/aspose/土地信息导入模板.xlsx
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
